--- a/src/test/resources/issue/common/simple_error.xlsx
+++ b/src/test/resources/issue/common/simple_error.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10124" activeTab="1"/>
+    <workbookView windowHeight="27520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>字符串标题</t>
   </si>
@@ -69,7 +69,16 @@
     <t>String19</t>
   </si>
   <si>
-    <t>数值标题</t>
+    <t>StringTitle</t>
+  </si>
+  <si>
+    <t>DateTitle</t>
+  </si>
+  <si>
+    <t>DoubleTitle</t>
+  </si>
+  <si>
+    <t>BigDecimalTitle</t>
   </si>
   <si>
     <t>String20</t>
@@ -1433,7 +1442,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1445,21 +1454,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>43831.0423611111</v>
@@ -1468,12 +1477,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>43832.0423611111</v>
@@ -1482,12 +1491,12 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>43833.0423611111</v>
@@ -1496,12 +1505,12 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>43834.0423611111</v>
@@ -1510,12 +1519,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>43835.0423611111</v>
@@ -1524,12 +1533,12 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>43836.0423611111</v>
@@ -1538,12 +1547,12 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1">
         <v>43837.0423611111</v>
@@ -1552,12 +1561,12 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
         <v>43838.0423611111</v>
@@ -1566,12 +1575,12 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1">
         <v>43839.0423611111</v>
@@ -1580,12 +1589,12 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1">
         <v>43840.0423611111</v>
@@ -1594,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
